--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_4_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_4_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.76000000000043</v>
+        <v>24.86000000000045</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.96066462692298</v>
+        <v>45.23097444064665</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.87983821139839, 58.041491042447575]</t>
+          <t>[38.322340389780244, 52.13960849151305]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.68594044175552e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.68594044175552e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.415131825941349</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2138686329185795, 1.616395018964118]</t>
+          <t>[1.478026573760964, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>48.79056523189216</v>
+        <v>50.15684965607376</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.171794885270494, 54.409335578513826]</t>
+          <t>[45.54060482424665, 54.77309448790087]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.18342342342375</v>
+        <v>18.3152752752756</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.39031031031063</v>
+        <v>17.61849849849881</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.97653653653688</v>
+        <v>19.01205205205239</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.76000000000043</v>
+        <v>24.86000000000045</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.443289932012704e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.443289932012704e-15</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.98144751667606</v>
+        <v>47.35134996617911</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[39.64694550671864, 56.31594952663349]</t>
+          <t>[38.80410903158365, 55.89859090077458]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>1.327079178993886</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 1.5031844728888082]</t>
+          <t>[1.2641844311742716, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.82266473734676</v>
+        <v>53.39178686121192</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.02087585059037, 58.624453624103154]</t>
+          <t>[47.99365328180156, 58.789920440622275]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.53041041041075</v>
+        <v>19.11159159159193</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.83643643643677</v>
+        <v>18.36504504504537</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.22438438438473</v>
+        <v>19.85813813813849</v>
       </c>
     </row>
     <row r="4">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.76000000000043</v>
+        <v>24.86000000000045</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -767,39 +767,39 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>45.65587888955719</v>
+        <v>43.46633936543027</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[37.21620284529307, 54.095554933821305]</t>
+          <t>[34.83866885742733, 52.094009873433215]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.308464613382966e-14</v>
+        <v>3.286260152890463e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>3.308464613382966e-14</v>
+        <v>3.286260152890463e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.176131784226809</v>
+        <v>1.025184389459732</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 1.364816027685654]</t>
+          <t>[0.81134224687304, 1.2390265320464247]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.539657290550167e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.539657290550167e-12</v>
       </c>
       <c r="T4" t="n">
-        <v>50.44166316549029</v>
+        <v>52.69673607501266</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.87276291759537, 55.01056341338521]</t>
+          <t>[48.155290433870476, 57.23818171615484]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.1252452452456</v>
+        <v>20.80376376376414</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.38170170170205</v>
+        <v>19.95767767767804</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.86878878878915</v>
+        <v>21.64984984985024</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.76000000000043</v>
+        <v>24.86000000000045</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,39 +853,39 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.325390932591</v>
+        <v>49.25521167735786</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[43.23870146145666, 57.41208040372534]</t>
+          <t>[39.70689710164235, 58.80352625307338]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.547650896327468e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.547650896327468e-13</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8993948938205012</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 1.0377633390236554]</t>
+          <t>[0.7232895999255788, 1.1258159859711157]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.599076757789589e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.599076757789589e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>48.92757837748908</v>
+        <v>50.91627294598958</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.25085993279541, 52.60429682218276]</t>
+          <t>[45.78434859601059, 56.04819729596858]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21.21577577577614</v>
+        <v>21.20192192192231</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.67051051051087</v>
+        <v>20.40560560560598</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.76104104104142</v>
+        <v>21.99823823823863</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.76000000000043</v>
+        <v>24.86000000000045</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.351274978693255e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>5.351274978693255e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.46613985603756</v>
+        <v>44.61574138447754</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[35.85635709058584, 59.07592262148929]</t>
+          <t>[35.419230458292326, 53.81225231066275]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.574402830328836e-10</v>
+        <v>1.068478638899251e-12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.574402830328836e-10</v>
+        <v>1.068478638899251e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7232895999255788</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.47171060864711833, 0.9748685912040393]</t>
+          <t>[0.5975001042863468, 1.0000264903318872]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>3.523294989093984e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>3.523294989093984e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>50.45353514960235</v>
+        <v>48.04511061319269</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.565505264860306, 56.341565034344384]</t>
+          <t>[43.44705349255643, 52.64316773382895]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>21.90974974975013</v>
+        <v>21.69961961962001</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.91835835835872</v>
+        <v>20.90330330330368</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.90114114114153</v>
+        <v>22.49593593593634</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.76000000000043</v>
+        <v>24.86000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>8.215650382226158e-15</v>
+        <v>1.428857032692576e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>8.215650382226158e-15</v>
+        <v>1.428857032692576e-13</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.09708354390922</v>
+        <v>42.37925389341245</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[31.235950648708084, 48.95821643911036]</t>
+          <t>[32.15541167366705, 52.60309611315785]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.754996727589059e-12</v>
+        <v>1.077167244289967e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>8.754996727589059e-12</v>
+        <v>1.077167244289967e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4842895582110396</v>
+        <v>0.5849211547224247</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.25786846606042335, 0.7107106503616558]</t>
+          <t>[0.35850006257180933, 0.81134224687304]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.830492174305427e-05</v>
+        <v>4.664496336070911e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>8.830492174305427e-05</v>
+        <v>4.664496336070911e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>51.11813793369807</v>
+        <v>44.88736813892086</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.44464616312156, 55.79162970427457]</t>
+          <t>[39.50222409445217, 50.27251218338956]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.85157157157197</v>
+        <v>22.54570570570611</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9593193193197</v>
+        <v>21.64984984985024</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.74382382382424</v>
+        <v>23.44156156156198</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,57 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.96000000000015</v>
+        <v>23.00000000000016</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5547829356482472</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5547829356482472</v>
+      </c>
       <c r="L8" t="n">
-        <v>49.93407708764695</v>
+        <v>46.2839600380933</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[41.451752087135326, 58.41640208815857]</t>
+          <t>[38.27974918338617, 54.28817089280042]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1446579199851152</v>
+        <v>0.106921071293347</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.03144737390980801, 0.3207632138800385]</t>
+          <t>[-0.09434212172942136, 0.30818426431611545]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.10499730962155</v>
+        <v>0.290328535600191</v>
       </c>
       <c r="S8" t="n">
-        <v>0.10499730962155</v>
+        <v>0.290328535600191</v>
       </c>
       <c r="T8" t="n">
-        <v>53.59919006637114</v>
+        <v>49.68934491427581</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.3326095921807, 58.86577054056157]</t>
+          <t>[44.6366255650436, 54.74206426350801]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.43139139139154</v>
+        <v>22.60860860860876</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.78786786786801</v>
+        <v>21.87187187187202</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.07491491491507</v>
+        <v>23.3453453453455</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1187,57 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.96000000000015</v>
+        <v>23.00000000000016</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.687538997430238e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I9" t="n">
-        <v>1.687538997430238e-14</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.06368667642387327</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.06368667642387327</v>
+      </c>
       <c r="L9" t="n">
-        <v>43.82325867080137</v>
+        <v>47.45358072846106</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[34.367034775453746, 53.279482566148985]</t>
+          <t>[38.77963063409914, 56.12753082282297]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.304112621866807e-12</v>
+        <v>2.287059430727822e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>4.304112621866807e-12</v>
+        <v>2.287059430727822e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4339737599553466</v>
+        <v>0.2956053147521924</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.19497371824080734, 0.6729738016698859]</t>
+          <t>[0.09434212172942225, 0.4968685077749626]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0006653641763973983</v>
+        <v>0.004917638476922948</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0006653641763973983</v>
+        <v>0.004917638476922948</v>
       </c>
       <c r="T9" t="n">
-        <v>49.69910539979066</v>
+        <v>55.88309146368385</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.35025615471636, 55.04795464486496]</t>
+          <t>[50.816607840679275, 60.94957508668842]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>21.37417417417431</v>
+        <v>21.91791791791807</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.50082082082096</v>
+        <v>21.18118118118132</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.24752752752767</v>
+        <v>22.65465465465481</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1277,57 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.96000000000015</v>
+        <v>23.00000000000016</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.772360450213455e-15</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="I10" t="n">
-        <v>6.772360450213455e-15</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>8.659739592076221e-15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.734610183432467</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.734610183432467</v>
+      </c>
       <c r="L10" t="n">
-        <v>41.46096292187751</v>
+        <v>50.81124987754227</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[31.788586509312793, 51.133339334442226]</t>
+          <t>[39.096786206676605, 62.52571354840793]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.202349579429665e-11</v>
+        <v>2.999689385774218e-11</v>
       </c>
       <c r="O10" t="n">
-        <v>4.202349579429665e-11</v>
+        <v>2.999689385774218e-11</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6855527512338089</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 0.9119738433844242]</t>
+          <t>[0.3836579616996545, 0.8616580451287312]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.231310838318734e-07</v>
+        <v>4.021242017149262e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>2.231310838318734e-07</v>
+        <v>4.021242017149262e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>50.81203656015391</v>
+        <v>46.87617192801498</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.934342571472, 55.68973054883581]</t>
+          <t>[40.83552729706734, 52.91681655896263]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.45485485485499</v>
+        <v>20.72072072072086</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.62746746746759</v>
+        <v>19.84584584584598</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.28224224224238</v>
+        <v>21.59559559559574</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_4_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_4_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.86000000000045</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>45.23097444064665</v>
+        <v>49.86773160005401</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[38.322340389780244, 52.13960849151305]</t>
+          <t>[41.585458279274235, 58.15000492083378]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.478026573760964, 1.8302371615508104]</t>
+          <t>[1.3522370781217319, 1.704447665911582]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>50.15684965607376</v>
+        <v>51.9189307818999</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.54060482424665, 54.77309448790087]</t>
+          <t>[46.38906546988158, 57.44879609391821]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.3152752752756</v>
+        <v>18.76756756756789</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.61849849849881</v>
+        <v>18.07247247247278</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.01205205205239</v>
+        <v>19.46266266266301</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.86000000000045</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.443289932012704e-15</v>
+        <v>3.419486915845482e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.443289932012704e-15</v>
+        <v>3.419486915845482e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.35134996617911</v>
+        <v>39.66750164455262</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.80410903158365, 55.89859090077458]</t>
+          <t>[30.651854563190405, 48.68314872591484]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>1.988320619261685e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>1.988320619261685e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.452868674633118</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.6415529180919641]</t>
+          <t>[0.9748685912040402, 1.427710775505271]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.23945339839338e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.23945339839338e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>53.39178686121192</v>
+        <v>50.75128001367801</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.99365328180156, 58.789920440622275]</t>
+          <t>[45.8196304886671, 55.68292953868891]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.11159159159193</v>
+        <v>20.05845845845881</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.36504504504537</v>
+        <v>19.1647647647651</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.85813813813849</v>
+        <v>20.95215215215252</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.86000000000045</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>43.46633936543027</v>
+        <v>43.7577101828844</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[34.83866885742733, 52.094009873433215]</t>
+          <t>[34.641103304355504, 52.87431706141329]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.286260152890463e-13</v>
+        <v>1.484812273133684e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>3.286260152890463e-13</v>
+        <v>1.484812273133684e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>1.025184389459732</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.81134224687304, 1.2390265320464247]</t>
+          <t>[1.0000264903318863, 1.452868674633117]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.539657290550167e-12</v>
+        <v>3.175237850427948e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>1.539657290550167e-12</v>
+        <v>3.175237850427948e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>52.69673607501266</v>
+        <v>50.37385529273894</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.155290433870476, 57.23818171615484]</t>
+          <t>[45.054076145175785, 55.693634440302105]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.80376376376414</v>
+        <v>19.95915915915951</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.95767767767804</v>
+        <v>19.0654654654658</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.64984984985024</v>
+        <v>20.85285285285322</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.86000000000045</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.218048215738236e-15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>5.218048215738236e-15</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.25521167735786</v>
+        <v>46.45304851198539</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[39.70689710164235, 58.80352625307338]</t>
+          <t>[36.231907293960504, 56.67418973001028]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.547650896327468e-13</v>
+        <v>7.697398274331135e-12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.547650896327468e-13</v>
+        <v>7.697398274331135e-12</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9245527929483472</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.7232895999255788, 1.1258159859711157]</t>
+          <t>[0.6855527512338089, 1.1383949355350413]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.599076757789589e-12</v>
+        <v>2.366853379953682e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>5.599076757789589e-12</v>
+        <v>2.366853379953682e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>50.91627294598958</v>
+        <v>52.53186047169511</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.78434859601059, 56.04819729596858]</t>
+          <t>[47.12235277737095, 57.941368166019274]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21.20192192192231</v>
+        <v>21.20040040040077</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.40560560560598</v>
+        <v>20.30670670670706</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.99823823823863</v>
+        <v>22.09409409409448</v>
       </c>
     </row>
     <row r="6">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.86000000000045</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -939,39 +939,39 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>44.61574138447754</v>
+        <v>51.28317193249344</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[35.419230458292326, 53.81225231066275]</t>
+          <t>[42.722280594567366, 59.84406327041951]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.068478638899251e-12</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.068478638899251e-12</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="P6" t="n">
-        <v>0.798763297309117</v>
+        <v>0.7232895999255788</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.5975001042863468, 1.0000264903318872]</t>
+          <t>[0.5597632555945777, 0.88681594425658]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.523294989093984e-10</v>
+        <v>1.706745855756253e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>3.523294989093984e-10</v>
+        <v>1.706745855756253e-11</v>
       </c>
       <c r="T6" t="n">
-        <v>48.04511061319269</v>
+        <v>52.5522013140298</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.44705349255643, 52.64316773382895]</t>
+          <t>[48.241527962425934, 56.86287466563367]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>21.69961961962001</v>
+        <v>21.94514514514553</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.90330330330368</v>
+        <v>21.29969969970007</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.49593593593634</v>
+        <v>22.59059059059099</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.86000000000045</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.428857032692576e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>1.428857032692576e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.37925389341245</v>
+        <v>50.50507965572598</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[32.15541167366705, 52.60309611315785]</t>
+          <t>[40.62457090711672, 60.38558840433524]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.077167244289967e-10</v>
+        <v>2.073896609999792e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.077167244289967e-10</v>
+        <v>2.073896609999792e-13</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5849211547224247</v>
+        <v>0.4842895582110396</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.35850006257180933, 0.81134224687304]</t>
+          <t>[0.2956053147521942, 0.672973801669885]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.664496336070911e-06</v>
+        <v>5.220525611138171e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>4.664496336070911e-06</v>
+        <v>5.220525611138171e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>44.88736813892086</v>
+        <v>51.89051368842363</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[39.50222409445217, 50.27251218338956]</t>
+          <t>[46.71717613834544, 57.063851238501826]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.54570570570611</v>
+        <v>22.88848848848889</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.64984984985024</v>
+        <v>22.14374374374414</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.44156156156198</v>
+        <v>23.63323323323364</v>
       </c>
     </row>
     <row r="8">
@@ -1097,57 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.00000000000016</v>
+        <v>23.3000000000002</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.287858708565182e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5547829356482472</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.5547829356482472</v>
-      </c>
+        <v>1.287858708565182e-14</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.2839600380933</v>
+        <v>44.78749407074923</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[38.27974918338617, 54.28817089280042]</t>
+          <t>[35.751081995100314, 53.82390614639814]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>5.491163079796024e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>5.491163079796024e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>0.106921071293347</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.09434212172942136, 0.30818426431611545]</t>
+          <t>[-0.05660527303765317, 0.42139481039142357]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.290328535600191</v>
+        <v>0.1312763189885404</v>
       </c>
       <c r="S8" t="n">
-        <v>0.290328535600191</v>
+        <v>0.1312763189885404</v>
       </c>
       <c r="T8" t="n">
-        <v>49.68934491427581</v>
+        <v>49.97479012465734</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.6366255650436, 54.74206426350801]</t>
+          <t>[44.54338763312577, 55.40619261618891]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1157,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.60860860860876</v>
+        <v>22.62362362362382</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.87187187187202</v>
+        <v>21.73733733733753</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.3453453453455</v>
+        <v>23.50990990991011</v>
       </c>
     </row>
     <row r="9">
@@ -1187,57 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.00000000000016</v>
+        <v>23.3000000000002</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.221245327087672e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.06368667642387327</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.06368667642387327</v>
-      </c>
+        <v>1.221245327087672e-15</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.45358072846106</v>
+        <v>46.30138339957222</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.77963063409914, 56.12753082282297]</t>
+          <t>[36.449429633018646, 56.1533371661258]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.287059430727822e-14</v>
+        <v>2.821964883992223e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>2.287059430727822e-14</v>
+        <v>2.821964883992223e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.5471843060306538</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.09434212172942225, 0.4968685077749626]</t>
+          <t>[0.3207632138800376, 0.77360539818127]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.004917638476922948</v>
+        <v>1.428540648928944e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004917638476922948</v>
+        <v>1.428540648928944e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>55.88309146368385</v>
+        <v>53.55793521863644</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.816607840679275, 60.94957508668842]</t>
+          <t>[48.35094232415916, 58.764928113113726]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1247,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>21.91791791791807</v>
+        <v>21.27087087087106</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.18118118118132</v>
+        <v>20.43123123123141</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.65465465465481</v>
+        <v>22.11051051051071</v>
       </c>
     </row>
     <row r="10">
@@ -1277,57 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.00000000000016</v>
+        <v>23.3000000000002</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>8.659739592076221e-15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.734610183432467</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.734610183432467</v>
-      </c>
+        <v>6.661338147750939e-16</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.81124987754227</v>
+        <v>48.91948048524565</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[39.096786206676605, 62.52571354840793]</t>
+          <t>[38.51879034071299, 59.32017062977831]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.999689385774218e-11</v>
+        <v>2.754241279490088e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>2.999689385774218e-11</v>
+        <v>2.754241279490088e-12</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6226580034141929</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.3836579616996545, 0.8616580451287312]</t>
+          <t>[0.35850006257180933, 0.7861843477451922]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.021242017149262e-06</v>
+        <v>2.480000232729651e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>4.021242017149262e-06</v>
+        <v>2.480000232729651e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>46.87617192801498</v>
+        <v>50.13773269559039</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.83552729706734, 52.91681655896263]</t>
+          <t>[44.73122019996568, 55.54424519121509]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1337,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.72072072072086</v>
+        <v>21.17757757757776</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.84584584584598</v>
+        <v>20.38458458458477</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.59559559559574</v>
+        <v>21.97057057057076</v>
       </c>
     </row>
   </sheetData>
